--- a/data/trans_orig/P14C24_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C24_2015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5FE34E-655F-4F24-B484-7F77AC889349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F573EAFB-6FAA-45D1-A313-1480623980EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{562FE3FB-4C17-4230-8E90-B82A9CC4C59B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07FDD66B-62C8-460A-8C5D-6EC19E44C72C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
   <si>
     <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2015 (Tasa respuesta: 4,11%)</t>
   </si>
@@ -83,16 +83,16 @@
     <t>85,45%</t>
   </si>
   <si>
-    <t>59,79%</t>
+    <t>59,83%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,16 +104,16 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>30,13%</t>
+    <t>35,14%</t>
   </si>
   <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -128,13 +128,13 @@
     <t>7,62%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>32,25%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>27,27%</t>
+    <t>26,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,19 +149,19 @@
     <t>48,22%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
   </si>
   <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -170,37 +170,37 @@
     <t>33,37%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -209,82 +209,82 @@
     <t>45,76%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>66,87%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>63,04%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -293,79 +293,79 @@
     <t>62,81%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>56,96%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>30,7%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>38,72%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>34,79%</t>
+    <t>34,92%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -374,55 +374,55 @@
     <t>63,78%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -431,91 +431,94 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>14,31%</t>
+    <t>14,02%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>7,64%</t>
+    <t>11,65%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>13,45%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E24CA8-571C-4E44-9813-7701D26959BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436940B6-D383-4681-8475-997758A23616}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2204,10 +2207,10 @@
         <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -2216,13 +2219,13 @@
         <v>24661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2281,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C24_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C24_2015-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F573EAFB-6FAA-45D1-A313-1480623980EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FD68E5-EDA2-4D90-8B11-E172FDD4208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07FDD66B-62C8-460A-8C5D-6EC19E44C72C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9DB4AD14-466D-44B4-BEAB-13EA61CEC863}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
-  <si>
-    <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2015 (Tasa respuesta: 4,11%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
+  <si>
+    <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2016 (Tasa respuesta: 4,11%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -83,13 +83,13 @@
     <t>85,45%</t>
   </si>
   <si>
-    <t>59,83%</t>
+    <t>60,65%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>49,97%</t>
+    <t>50,31%</t>
   </si>
   <si>
     <t>93,95%</t>
@@ -104,16 +104,16 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>35,14%</t>
+    <t>37,65%</t>
   </si>
   <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -128,19 +128,19 @@
     <t>7,62%</t>
   </si>
   <si>
-    <t>32,25%</t>
+    <t>33,16%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>26,56%</t>
+    <t>31,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -149,19 +149,19 @@
     <t>48,22%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -170,151 +170,148 @@
     <t>33,37%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>45,76%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>66,87%</t>
   </si>
   <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>63,04%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>62,81%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
   </si>
   <si>
     <t>56,96%</t>
   </si>
   <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
   </si>
   <si>
     <t>30,7%</t>
@@ -323,49 +320,49 @@
     <t>8,06%</t>
   </si>
   <si>
-    <t>56,98%</t>
+    <t>60,89%</t>
   </si>
   <si>
     <t>38,72%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>34,92%</t>
+    <t>35,03%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -374,55 +371,55 @@
     <t>63,78%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -431,94 +428,94 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>14,02%</t>
+    <t>12,74%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>11,65%</t>
+    <t>9,53%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -933,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436940B6-D383-4681-8475-997758A23616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73226F-D31B-4217-BE1D-1E6F9E248CC4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1604,10 +1601,10 @@
         <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,7 +1660,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1675,13 +1672,13 @@
         <v>8616</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -1690,13 +1687,13 @@
         <v>28059</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -1705,13 +1702,13 @@
         <v>36676</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,13 +1723,13 @@
         <v>4212</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -1741,13 +1738,13 @@
         <v>19618</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -1756,13 +1753,13 @@
         <v>23831</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,13 +1774,13 @@
         <v>890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1792,13 +1789,13 @@
         <v>2992</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1807,13 +1804,13 @@
         <v>3882</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,7 +1866,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1881,13 +1878,13 @@
         <v>15507</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -1896,13 +1893,13 @@
         <v>52517</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -1911,13 +1908,13 @@
         <v>68024</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1929,13 @@
         <v>8808</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -1947,13 +1944,13 @@
         <v>10738</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -1962,13 +1959,13 @@
         <v>19546</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,7 +1986,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1998,13 +1995,13 @@
         <v>1705</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2013,13 +2010,13 @@
         <v>1705</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2084,13 @@
         <v>39540</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -2102,13 +2099,13 @@
         <v>150426</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -2117,13 +2114,13 @@
         <v>189966</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2135,13 @@
         <v>17960</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -2153,13 +2150,13 @@
         <v>58106</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -2168,13 +2165,13 @@
         <v>76066</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2186,13 @@
         <v>5014</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -2204,13 +2201,13 @@
         <v>19647</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -2219,13 +2216,13 @@
         <v>24661</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2278,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
